--- a/Daftar Berita/Daftar Berita.xlsx
+++ b/Daftar Berita/Daftar Berita.xlsx
@@ -2530,36 +2530,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2584,6 +2554,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2592,6 +2565,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2876,10 +2876,10 @@
   <dimension ref="A1:CD682"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="10" topLeftCell="U11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="10" topLeftCell="AD477" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2970,116 +2970,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="67" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="69" t="s">
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="71"/>
-      <c r="AQ1" s="69" t="s">
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="71"/>
-      <c r="AY1" s="67" t="s">
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="68"/>
-      <c r="BB1" s="68"/>
-      <c r="BC1" s="68"/>
-      <c r="BD1" s="68"/>
-      <c r="BE1" s="68"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="69" t="s">
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="59"/>
+      <c r="BG1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="70"/>
-      <c r="BN1" s="71"/>
-      <c r="BO1" s="69" t="s">
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="61"/>
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="61"/>
+      <c r="BL1" s="61"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="62"/>
+      <c r="BO1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="BP1" s="70"/>
-      <c r="BQ1" s="70"/>
-      <c r="BR1" s="70"/>
-      <c r="BS1" s="70"/>
-      <c r="BT1" s="70"/>
-      <c r="BU1" s="70"/>
-      <c r="BV1" s="71"/>
-      <c r="BW1" s="69" t="s">
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
+      <c r="BS1" s="61"/>
+      <c r="BT1" s="61"/>
+      <c r="BU1" s="61"/>
+      <c r="BV1" s="62"/>
+      <c r="BW1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="BX1" s="70"/>
-      <c r="BY1" s="70"/>
-      <c r="BZ1" s="70"/>
-      <c r="CA1" s="70"/>
-      <c r="CB1" s="70"/>
-      <c r="CC1" s="70"/>
-      <c r="CD1" s="70"/>
+      <c r="BX1" s="61"/>
+      <c r="BY1" s="61"/>
+      <c r="BZ1" s="61"/>
+      <c r="CA1" s="61"/>
+      <c r="CB1" s="61"/>
+      <c r="CC1" s="61"/>
+      <c r="CD1" s="61"/>
     </row>
     <row r="2" spans="1:82" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
-      <c r="B2" s="62"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="5">
         <v>0</v>
       </c>
@@ -3236,211 +3236,211 @@
       </c>
     </row>
     <row r="3" spans="1:82" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="51">
+      <c r="A3" s="55"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="59">
         <f>SUM(D6:D682)</f>
         <v>30</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="51">
+      <c r="D3" s="65"/>
+      <c r="E3" s="59">
         <f t="shared" ref="E3" si="0">SUM(F6:F682)</f>
         <v>30</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="51">
+      <c r="F3" s="65"/>
+      <c r="G3" s="59">
         <f t="shared" ref="G3" si="1">SUM(H6:H682)</f>
         <v>30</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="51">
+      <c r="H3" s="65"/>
+      <c r="I3" s="59">
         <f t="shared" ref="I3" si="2">SUM(J6:J682)</f>
         <v>30</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="51">
+      <c r="J3" s="65"/>
+      <c r="K3" s="59">
         <f t="shared" ref="K3" si="3">SUM(L6:L682)</f>
         <v>30</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="51">
+      <c r="L3" s="65"/>
+      <c r="M3" s="59">
         <f t="shared" ref="M3:BQ3" si="4">SUM(N6:N682)</f>
         <v>30</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="51">
+      <c r="N3" s="65"/>
+      <c r="O3" s="59">
         <f t="shared" ref="O3:BS3" si="5">SUM(P6:P682)</f>
         <v>30</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="51">
+      <c r="P3" s="65"/>
+      <c r="Q3" s="59">
         <f t="shared" ref="Q3:BU3" si="6">SUM(R6:R682)</f>
         <v>30</v>
       </c>
-      <c r="R3" s="52"/>
-      <c r="S3" s="51">
+      <c r="R3" s="65"/>
+      <c r="S3" s="59">
         <f t="shared" ref="S3" si="7">SUM(T6:T682)</f>
         <v>30</v>
       </c>
-      <c r="T3" s="52"/>
-      <c r="U3" s="51">
+      <c r="T3" s="65"/>
+      <c r="U3" s="59">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="V3" s="52"/>
-      <c r="W3" s="51">
+      <c r="V3" s="65"/>
+      <c r="W3" s="59">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="51">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="59">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="51">
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="59">
         <f t="shared" ref="AA3" si="8">SUM(AB6:AB682)</f>
         <v>30</v>
       </c>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="51">
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="59">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="51">
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="59">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="51">
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="59">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="51">
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="59">
         <f t="shared" ref="AI3" si="9">SUM(AJ6:AJ682)</f>
         <v>30</v>
       </c>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="51">
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="59">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="51">
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="59">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="51">
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="59">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="51">
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="59">
         <f t="shared" ref="AQ3" si="10">SUM(AR6:AR682)</f>
         <v>30</v>
       </c>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="51">
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="59">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="51">
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="59">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="51">
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="59">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="51">
+      <c r="AX3" s="65"/>
+      <c r="AY3" s="59">
         <f t="shared" ref="AY3" si="11">SUM(AZ6:AZ682)</f>
         <v>30</v>
       </c>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="51">
+      <c r="AZ3" s="65"/>
+      <c r="BA3" s="59">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="51">
+      <c r="BB3" s="65"/>
+      <c r="BC3" s="59">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="51">
+      <c r="BD3" s="65"/>
+      <c r="BE3" s="59">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="51">
+      <c r="BF3" s="65"/>
+      <c r="BG3" s="59">
         <f t="shared" ref="BG3" si="12">SUM(BH6:BH682)</f>
         <v>30</v>
       </c>
-      <c r="BH3" s="52"/>
-      <c r="BI3" s="51">
+      <c r="BH3" s="65"/>
+      <c r="BI3" s="59">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="51">
+      <c r="BJ3" s="65"/>
+      <c r="BK3" s="59">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="51">
+      <c r="BL3" s="65"/>
+      <c r="BM3" s="59">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="BN3" s="52"/>
-      <c r="BO3" s="51">
+      <c r="BN3" s="65"/>
+      <c r="BO3" s="59">
         <f t="shared" ref="BO3" si="13">SUM(BP6:BP682)</f>
         <v>30</v>
       </c>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="51">
+      <c r="BP3" s="65"/>
+      <c r="BQ3" s="59">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="51">
+      <c r="BR3" s="65"/>
+      <c r="BS3" s="59">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="BT3" s="52"/>
-      <c r="BU3" s="51">
+      <c r="BT3" s="65"/>
+      <c r="BU3" s="59">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="BV3" s="52"/>
-      <c r="BW3" s="51">
+      <c r="BV3" s="65"/>
+      <c r="BW3" s="59">
         <f t="shared" ref="BW3" si="14">SUM(BX6:BX682)</f>
         <v>30</v>
       </c>
-      <c r="BX3" s="52"/>
-      <c r="BY3" s="51">
+      <c r="BX3" s="65"/>
+      <c r="BY3" s="59">
         <f t="shared" ref="BY3" si="15">SUM(BZ6:BZ682)</f>
         <v>30</v>
       </c>
-      <c r="BZ3" s="52"/>
-      <c r="CA3" s="51">
+      <c r="BZ3" s="65"/>
+      <c r="CA3" s="59">
         <f t="shared" ref="CA3" si="16">SUM(CB6:CB682)</f>
         <v>30</v>
       </c>
-      <c r="CB3" s="52"/>
-      <c r="CC3" s="51">
+      <c r="CB3" s="65"/>
+      <c r="CC3" s="59">
         <f t="shared" ref="CC3" si="17">SUM(CD6:CD682)</f>
         <v>30</v>
       </c>
-      <c r="CD3" s="52"/>
+      <c r="CD3" s="65"/>
     </row>
     <row r="4" spans="1:82" s="6" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="43"/>
       <c r="C4" s="7">
         <v>0</v>
@@ -3604,171 +3604,171 @@
       <c r="CD4" s="8"/>
     </row>
     <row r="5" spans="1:82" s="19" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="44">
         <f>AVERAGE(B6:B682)</f>
         <v>1.7680945347119645</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="57" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58" t="s">
+      <c r="F5" s="70"/>
+      <c r="G5" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="57" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="53" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55" t="s">
+      <c r="L5" s="67"/>
+      <c r="M5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="59" t="s">
+      <c r="N5" s="64"/>
+      <c r="O5" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="53" t="s">
+      <c r="P5" s="69"/>
+      <c r="Q5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="54"/>
-      <c r="S5" s="55" t="s">
+      <c r="R5" s="67"/>
+      <c r="S5" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="56"/>
-      <c r="U5" s="55" t="s">
+      <c r="T5" s="64"/>
+      <c r="U5" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="V5" s="56"/>
-      <c r="W5" s="55" t="s">
+      <c r="V5" s="64"/>
+      <c r="W5" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="53" t="s">
+      <c r="X5" s="64"/>
+      <c r="Y5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="53" t="s">
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="55" t="s">
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="53" t="s">
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="53" t="s">
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="53" t="s">
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="54"/>
-      <c r="AK5" s="53" t="s">
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="53" t="s">
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="AN5" s="54"/>
-      <c r="AO5" s="53" t="s">
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="AP5" s="54"/>
-      <c r="AQ5" s="53" t="s">
+      <c r="AP5" s="67"/>
+      <c r="AQ5" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="53" t="s">
+      <c r="AR5" s="67"/>
+      <c r="AS5" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="55" t="s">
+      <c r="AT5" s="67"/>
+      <c r="AU5" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="AV5" s="56"/>
-      <c r="AW5" s="53" t="s">
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="AX5" s="54"/>
-      <c r="AY5" s="53" t="s">
+      <c r="AX5" s="67"/>
+      <c r="AY5" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AZ5" s="54"/>
-      <c r="BA5" s="53" t="s">
+      <c r="AZ5" s="67"/>
+      <c r="BA5" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="BB5" s="54"/>
-      <c r="BC5" s="55" t="s">
+      <c r="BB5" s="67"/>
+      <c r="BC5" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="53" t="s">
+      <c r="BD5" s="64"/>
+      <c r="BE5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="BF5" s="54"/>
-      <c r="BG5" s="55" t="s">
+      <c r="BF5" s="67"/>
+      <c r="BG5" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="BH5" s="56"/>
-      <c r="BI5" s="53" t="s">
+      <c r="BH5" s="64"/>
+      <c r="BI5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="BJ5" s="54"/>
-      <c r="BK5" s="53" t="s">
+      <c r="BJ5" s="67"/>
+      <c r="BK5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="BL5" s="54"/>
-      <c r="BM5" s="53" t="s">
+      <c r="BL5" s="67"/>
+      <c r="BM5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="BN5" s="54"/>
-      <c r="BO5" s="55" t="s">
+      <c r="BN5" s="67"/>
+      <c r="BO5" s="63" t="s">
         <v>658</v>
       </c>
-      <c r="BP5" s="56"/>
-      <c r="BQ5" s="53" t="s">
+      <c r="BP5" s="64"/>
+      <c r="BQ5" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="BR5" s="54"/>
-      <c r="BS5" s="55" t="s">
+      <c r="BR5" s="67"/>
+      <c r="BS5" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="BT5" s="56"/>
-      <c r="BU5" s="53" t="s">
+      <c r="BT5" s="64"/>
+      <c r="BU5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="BV5" s="54"/>
-      <c r="BW5" s="53" t="s">
+      <c r="BV5" s="67"/>
+      <c r="BW5" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="BX5" s="54"/>
-      <c r="BY5" s="53" t="s">
+      <c r="BX5" s="67"/>
+      <c r="BY5" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="BZ5" s="54"/>
-      <c r="CA5" s="55" t="s">
+      <c r="BZ5" s="67"/>
+      <c r="CA5" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="CB5" s="56"/>
-      <c r="CC5" s="53" t="s">
+      <c r="CB5" s="64"/>
+      <c r="CC5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="CD5" s="54"/>
+      <c r="CD5" s="67"/>
     </row>
     <row r="6" spans="1:82" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
@@ -17118,6 +17118,82 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC3:CD3"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BW3:BX3"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="C1:J1"/>
@@ -17134,82 +17210,6 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC3:CD3"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BW3:BX3"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BE5:BF5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
